--- a/data/trans_orig/P24F-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B3D373-766F-447E-80B5-A438A38011A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{883A152D-AC9C-449A-B9D6-AE6FBD263D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2E092589-DF6D-4A50-9DE5-4F1AE373D18E}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43A8BA08-30C2-4B9A-BACE-11EC24F444D9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="867">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>3,09%</t>
   </si>
   <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
   </si>
   <si>
     <t>4,26%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
   </si>
   <si>
     <t>3,54%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
   </si>
   <si>
     <t>No lo ha pensado</t>
@@ -106,28 +106,28 @@
     <t>42,49%</t>
   </si>
   <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>52,39%</t>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>52,97%</t>
   </si>
   <si>
     <t>51,42%</t>
   </si>
   <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
   </si>
   <si>
     <t>45,97%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
   </si>
   <si>
     <t>Sí le gustaría</t>
@@ -136,28 +136,28 @@
     <t>43,71%</t>
   </si>
   <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>52,86%</t>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>52,88%</t>
   </si>
   <si>
     <t>32,15%</t>
   </si>
   <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>44,69%</t>
   </si>
   <si>
     <t>39,21%</t>
   </si>
   <si>
-    <t>32,09%</t>
-  </si>
-  <si>
-    <t>46,87%</t>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
   </si>
   <si>
     <t>No</t>
@@ -166,2473 +166,2479 @@
     <t>10,71%</t>
   </si>
   <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
   </si>
   <si>
     <t>12,17%</t>
   </si>
   <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>32,53%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>38,62%</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>29,42%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>34,98%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
     <t>5,77%</t>
   </si>
   <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>47,85%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
     <t>22,47%</t>
   </si>
   <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cadiz</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>33,31%</t>
-  </si>
-  <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>46,7%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>39,72%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>29,42%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>33,62%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>40,63%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>42,51%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>50,76%</t>
+  </si>
+  <si>
+    <t>56,39%</t>
+  </si>
+  <si>
+    <t>46,81%</t>
+  </si>
+  <si>
+    <t>65,08%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>53,62%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>45,09%</t>
+  </si>
+  <si>
+    <t>44,27%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>56,81%</t>
+  </si>
+  <si>
+    <t>38,13%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>46,53%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>33,04%</t>
+  </si>
+  <si>
+    <t>54,39%</t>
+  </si>
+  <si>
+    <t>43,61%</t>
+  </si>
+  <si>
+    <t>30,61%</t>
+  </si>
+  <si>
+    <t>55,95%</t>
+  </si>
+  <si>
+    <t>43,16%</t>
+  </si>
+  <si>
+    <t>34,75%</t>
+  </si>
+  <si>
+    <t>51,64%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>12,13%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
+  </si>
+  <si>
+    <t>42,54%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>42,93%</t>
+  </si>
+  <si>
+    <t>34,62%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
+  </si>
+  <si>
+    <t>55,14%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>36,26%</t>
+  </si>
+  <si>
+    <t>50,18%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>39,55%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>38,4%</t>
+  </si>
+  <si>
+    <t>48,82%</t>
+  </si>
+  <si>
+    <t>35,49%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>50,86%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>41,59%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>39,77%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>33,76%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>30,78%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>38,38%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>41,82%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>45,12%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>18,91%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
+  </si>
+  <si>
+    <t>—%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>72,83%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>62,64%</t>
+  </si>
+  <si>
+    <t>57,36%</t>
+  </si>
+  <si>
+    <t>68,0%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>61,51%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>22,3%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>11,43%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>69,62%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>75,27%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>65,68%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>71,15%</t>
+  </si>
+  <si>
+    <t>66,98%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>51,75%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>50,77%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>63,84%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>61,66%</t>
+  </si>
+  <si>
+    <t>76,14%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>62,96%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>37,24%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>26,19%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>46,4%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>64,41%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>73,47%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>44,11%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>37,76%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>46,5%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>26,75%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>78,51%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
   </si>
   <si>
     <t>9,53%</t>
   </si>
   <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>61,15%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>40,19%</t>
+  </si>
+  <si>
+    <t>59,62%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>26,85%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>13,04%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>76,83%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>83,42%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>62,44%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>42,28%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>53,64%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
   </si>
   <si>
     <t>34,02%</t>
   </si>
   <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>27,09%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>33,62%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>47,7%</t>
-  </si>
-  <si>
-    <t>65,4%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>42,43%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>44,05%</t>
-  </si>
-  <si>
-    <t>44,27%</t>
-  </si>
-  <si>
-    <t>32,22%</t>
-  </si>
-  <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>38,13%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>42,84%</t>
-  </si>
-  <si>
-    <t>32,57%</t>
-  </si>
-  <si>
-    <t>53,17%</t>
-  </si>
-  <si>
-    <t>43,61%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>34,8%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>17,04%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>12,13%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>46,43%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>55,47%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>42,54%</t>
-  </si>
-  <si>
-    <t>35,17%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>42,93%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>51,48%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>55,1%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>44,2%</t>
+  </si>
+  <si>
+    <t>60,02%</t>
+  </si>
+  <si>
+    <t>50,01%</t>
+  </si>
+  <si>
+    <t>55,31%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
   </si>
   <si>
     <t>6,25%</t>
   </si>
   <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>39,95%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>39,55%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>47,71%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>48,97%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>43,38%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>21,34%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>32,26%</t>
-  </si>
-  <si>
-    <t>41,59%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>47,24%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>39,77%</t>
-  </si>
-  <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>39,88%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>38,72%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
-  </si>
-  <si>
-    <t>41,61%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>22,6%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>65,54%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>54,44%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
   </si>
   <si>
     <t>17,47%</t>
   </si>
   <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>18,91%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,13%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>52,69%</t>
+  </si>
+  <si>
+    <t>58,67%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
   </si>
   <si>
     <t>17,74%</t>
   </si>
   <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>58,12%</t>
-  </si>
-  <si>
-    <t>49,31%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>62,64%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>67,97%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>15,08%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>62,95%</t>
-  </si>
-  <si>
-    <t>53,4%</t>
-  </si>
-  <si>
-    <t>70,93%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>26,4%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>19,93%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>63,45%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>79,71%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>66,39%</t>
-  </si>
-  <si>
-    <t>75,15%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>52,03%</t>
-  </si>
-  <si>
-    <t>73,73%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>73,54%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>51,45%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>49,61%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>31,71%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>15,02%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>26,85%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>64,52%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>65,99%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>60,05%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2015 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>41,52%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>38,95%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>40,07%</t>
-  </si>
-  <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>50,01%</t>
-  </si>
-  <si>
-    <t>44,3%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,07%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>52,08%</t>
-  </si>
-  <si>
-    <t>66,18%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>54,61%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>19,26%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
     <t>21,03%</t>
   </si>
   <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
+    <t>23,09%</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +3050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B1D111-1571-48F4-A18C-34B1E0D8BF12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91F3181B-20DE-44D8-820A-903F415A3FD2}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3530,10 +3536,10 @@
         <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="7">
         <v>56</v>
@@ -3542,13 +3548,13 @@
         <v>57353</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M11" s="7">
         <v>122</v>
@@ -3557,13 +3563,13 @@
         <v>131094</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3578,13 +3584,13 @@
         <v>59463</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -3593,13 +3599,13 @@
         <v>31478</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M12" s="7">
         <v>87</v>
@@ -3608,13 +3614,13 @@
         <v>90941</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3670,7 +3676,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3682,7 +3688,7 @@
         <v>8529</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>87</v>
@@ -3856,7 +3862,7 @@
         <v>117</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="M17" s="7">
         <v>39</v>
@@ -3865,13 +3871,13 @@
         <v>40639</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3927,7 +3933,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3939,13 +3945,13 @@
         <v>4580</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -3954,13 +3960,13 @@
         <v>3600</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -3969,13 +3975,13 @@
         <v>8180</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3996,13 @@
         <v>57320</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>30</v>
@@ -4005,13 +4011,13 @@
         <v>30013</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>89</v>
@@ -4020,13 +4026,13 @@
         <v>87333</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,13 +4047,13 @@
         <v>72481</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>60</v>
@@ -4056,13 +4062,13 @@
         <v>59336</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>132</v>
@@ -4071,13 +4077,13 @@
         <v>131817</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4098,13 @@
         <v>36106</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="H22" s="7">
         <v>13</v>
@@ -4107,13 +4113,13 @@
         <v>12270</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M22" s="7">
         <v>47</v>
@@ -4140,7 +4146,7 @@
         <v>170</v>
       </c>
       <c r="D23" s="7">
-        <v>170488</v>
+        <v>170487</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -4355,7 +4361,7 @@
         <v>186</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="H27" s="7">
         <v>6</v>
@@ -4364,13 +4370,13 @@
         <v>7218</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="M27" s="7">
         <v>19</v>
@@ -4379,13 +4385,13 @@
         <v>21585</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4441,7 +4447,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -4453,13 +4459,13 @@
         <v>4824</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -4468,13 +4474,13 @@
         <v>8280</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M29" s="7">
         <v>13</v>
@@ -4483,13 +4489,13 @@
         <v>13103</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4504,13 +4510,13 @@
         <v>58186</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H30" s="7">
         <v>22</v>
@@ -4519,13 +4525,13 @@
         <v>22787</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M30" s="7">
         <v>79</v>
@@ -4534,13 +4540,13 @@
         <v>80974</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4555,13 +4561,13 @@
         <v>53797</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="H31" s="7">
         <v>28</v>
@@ -4570,13 +4576,13 @@
         <v>28160</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="M31" s="7">
         <v>82</v>
@@ -4585,13 +4591,13 @@
         <v>81958</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,13 +4612,13 @@
         <v>8521</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H32" s="7">
         <v>6</v>
@@ -4621,13 +4627,13 @@
         <v>5780</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>154</v>
       </c>
       <c r="M32" s="7">
         <v>14</v>
@@ -4830,10 +4836,10 @@
         <v>252</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>142</v>
+        <v>253</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M36" s="7">
         <v>149</v>
@@ -4845,10 +4851,10 @@
         <v>68</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4863,13 +4869,13 @@
         <v>34620</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="H37" s="7">
         <v>20</v>
@@ -4878,13 +4884,13 @@
         <v>20735</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="M37" s="7">
         <v>55</v>
@@ -4893,13 +4899,13 @@
         <v>55355</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4955,7 +4961,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -4967,13 +4973,13 @@
         <v>20090</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>194</v>
+        <v>268</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="H39" s="7">
         <v>9</v>
@@ -4982,13 +4988,13 @@
         <v>9392</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M39" s="7">
         <v>27</v>
@@ -4997,13 +5003,13 @@
         <v>29481</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -5018,13 +5024,13 @@
         <v>82534</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="H40" s="7">
         <v>56</v>
@@ -5033,13 +5039,13 @@
         <v>58731</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>216</v>
+        <v>279</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="M40" s="7">
         <v>136</v>
@@ -5048,13 +5054,13 @@
         <v>141265</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -5069,13 +5075,13 @@
         <v>132035</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="H41" s="7">
         <v>66</v>
@@ -5084,13 +5090,13 @@
         <v>68336</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="M41" s="7">
         <v>195</v>
@@ -5099,13 +5105,13 @@
         <v>200371</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -5120,13 +5126,13 @@
         <v>82819</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="H42" s="7">
         <v>48</v>
@@ -5135,13 +5141,13 @@
         <v>49908</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M42" s="7">
         <v>128</v>
@@ -5150,13 +5156,13 @@
         <v>132728</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -5224,13 +5230,13 @@
         <v>56056</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="H44" s="7">
         <v>47</v>
@@ -5239,13 +5245,13 @@
         <v>47194</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M44" s="7">
         <v>101</v>
@@ -5254,13 +5260,13 @@
         <v>103250</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5275,13 +5281,13 @@
         <v>516578</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="H45" s="7">
         <v>295</v>
@@ -5290,13 +5296,13 @@
         <v>302954</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M45" s="7">
         <v>805</v>
@@ -5305,13 +5311,13 @@
         <v>819533</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5326,13 +5332,13 @@
         <v>539879</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="H46" s="7">
         <v>353</v>
@@ -5341,13 +5347,13 @@
         <v>359231</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M46" s="7">
         <v>877</v>
@@ -5356,13 +5362,13 @@
         <v>899111</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -5377,13 +5383,13 @@
         <v>270917</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="H47" s="7">
         <v>150</v>
@@ -5392,13 +5398,13 @@
         <v>153950</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M47" s="7">
         <v>409</v>
@@ -5407,13 +5413,13 @@
         <v>424867</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5469,7 +5475,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -5493,7 +5499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6EAEEFB-C598-41D9-BF54-836AE6EF4C19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FE3218-86C6-4927-B90E-3CFD09B9281C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5510,7 +5516,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5615,39 +5621,39 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
       <c r="N4" s="7"/>
       <c r="O4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,39 +5666,39 @@
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5705,39 +5711,39 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5750,39 +5756,39 @@
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
       </c>
       <c r="I7" s="7"/>
       <c r="J7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M7" s="7">
         <v>0</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,39 +5801,39 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5844,13 +5850,13 @@
         <v>954</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5859,13 +5865,13 @@
         <v>1995</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5877,10 +5883,10 @@
         <v>55</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5895,13 +5901,13 @@
         <v>26046</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>345</v>
+        <v>197</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5910,13 +5916,13 @@
         <v>26120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -5925,13 +5931,13 @@
         <v>52166</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5946,13 +5952,13 @@
         <v>135745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -5961,13 +5967,13 @@
         <v>87893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M11" s="7">
         <v>204</v>
@@ -5976,13 +5982,13 @@
         <v>223638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5997,13 +6003,13 @@
         <v>43067</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -6012,13 +6018,13 @@
         <v>35209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -6027,13 +6033,13 @@
         <v>78276</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6089,7 +6095,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6101,13 +6107,13 @@
         <v>1943</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6116,13 +6122,13 @@
         <v>1276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>374</v>
+        <v>227</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -6131,13 +6137,13 @@
         <v>3219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>195</v>
+        <v>376</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>14</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6152,13 +6158,13 @@
         <v>19992</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -6167,13 +6173,13 @@
         <v>12354</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>223</v>
+        <v>382</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -6182,13 +6188,13 @@
         <v>32346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6203,13 +6209,13 @@
         <v>79969</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -6218,13 +6224,13 @@
         <v>63578</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>137</v>
@@ -6233,13 +6239,13 @@
         <v>143548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6260,13 @@
         <v>25133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6269,13 +6275,13 @@
         <v>10225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -6284,13 +6290,13 @@
         <v>35359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6346,7 +6352,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6358,13 +6364,13 @@
         <v>5349</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -6373,13 +6379,13 @@
         <v>4334</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="M19" s="7">
         <v>9</v>
@@ -6388,13 +6394,13 @@
         <v>9683</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>410</v>
+        <v>310</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6409,13 +6415,13 @@
         <v>46132</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="H20" s="7">
         <v>20</v>
@@ -6424,13 +6430,13 @@
         <v>21413</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>262</v>
+        <v>417</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
@@ -6439,13 +6445,13 @@
         <v>67545</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6460,13 +6466,13 @@
         <v>185555</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -6475,13 +6481,13 @@
         <v>147089</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="M21" s="7">
         <v>303</v>
@@ -6490,13 +6496,13 @@
         <v>332645</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6511,13 +6517,13 @@
         <v>29505</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="H22" s="7">
         <v>27</v>
@@ -6526,13 +6532,13 @@
         <v>28174</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M22" s="7">
         <v>56</v>
@@ -6541,13 +6547,13 @@
         <v>57679</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6615,13 +6621,13 @@
         <v>940</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>124</v>
+        <v>441</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>189</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6636,7 +6642,7 @@
         <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6645,13 +6651,13 @@
         <v>940</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6666,13 +6672,13 @@
         <v>19848</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6681,13 +6687,13 @@
         <v>8040</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6696,13 +6702,13 @@
         <v>27888</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>396</v>
+        <v>452</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6723,13 @@
         <v>57606</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -6732,13 +6738,13 @@
         <v>42094</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -6747,13 +6753,13 @@
         <v>99701</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>456</v>
+        <v>218</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6774,13 @@
         <v>13005</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -6783,13 +6789,13 @@
         <v>15305</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>82</v>
+        <v>467</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -6798,13 +6804,13 @@
         <v>28310</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6860,7 +6866,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -6872,13 +6878,13 @@
         <v>987</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6887,13 +6893,13 @@
         <v>1057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>468</v>
+        <v>232</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6902,13 +6908,13 @@
         <v>2044</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>53</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6929,13 @@
         <v>5861</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -6938,13 +6944,13 @@
         <v>3814</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>475</v>
+        <v>124</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -6953,13 +6959,13 @@
         <v>9676</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6980,13 @@
         <v>53692</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="H31" s="7">
         <v>48</v>
@@ -6989,13 +6995,13 @@
         <v>50374</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>26</v>
+        <v>488</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="M31" s="7">
         <v>99</v>
@@ -7004,13 +7010,13 @@
         <v>104065</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7025,13 +7031,13 @@
         <v>23199</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>352</v>
+        <v>494</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -7040,13 +7046,13 @@
         <v>11634</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7055,13 +7061,13 @@
         <v>34834</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7135,13 @@
         <v>5897</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>498</v>
+        <v>12</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7144,13 +7150,13 @@
         <v>2154</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="K34" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -7159,13 +7165,13 @@
         <v>8052</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7186,13 @@
         <v>32975</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -7195,13 +7201,13 @@
         <v>21540</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="M35" s="7">
         <v>50</v>
@@ -7210,13 +7216,13 @@
         <v>54515</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>511</v>
+        <v>353</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7231,13 +7237,13 @@
         <v>161502</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="H36" s="7">
         <v>102</v>
@@ -7246,13 +7252,13 @@
         <v>110486</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="M36" s="7">
         <v>254</v>
@@ -7261,13 +7267,13 @@
         <v>271988</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7282,13 +7288,13 @@
         <v>77726</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>167</v>
+        <v>528</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -7297,13 +7303,13 @@
         <v>58146</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M37" s="7">
         <v>126</v>
@@ -7312,13 +7318,13 @@
         <v>135872</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7374,7 +7380,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -7386,13 +7392,13 @@
         <v>5809</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -7401,13 +7407,13 @@
         <v>3052</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>338</v>
+        <v>539</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="M39" s="7">
         <v>9</v>
@@ -7416,13 +7422,13 @@
         <v>8860</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>498</v>
+        <v>542</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7437,13 +7443,13 @@
         <v>61211</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>538</v>
+        <v>338</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>539</v>
+        <v>544</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="H40" s="7">
         <v>47</v>
@@ -7452,13 +7458,13 @@
         <v>50752</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="M40" s="7">
         <v>104</v>
@@ -7467,13 +7473,13 @@
         <v>111963</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>545</v>
+        <v>550</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>546</v>
+        <v>551</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7488,13 +7494,13 @@
         <v>156463</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>547</v>
+        <v>552</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -7503,13 +7509,13 @@
         <v>111254</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="M41" s="7">
         <v>244</v>
@@ -7518,13 +7524,13 @@
         <v>267717</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7539,13 +7545,13 @@
         <v>72671</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="H42" s="7">
         <v>39</v>
@@ -7554,13 +7560,13 @@
         <v>42809</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>560</v>
+        <v>434</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="M42" s="7">
         <v>106</v>
@@ -7569,13 +7575,13 @@
         <v>115481</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7643,13 +7649,13 @@
         <v>21878</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>232</v>
+        <v>569</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7658,13 +7664,13 @@
         <v>13869</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>567</v>
+        <v>129</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>127</v>
+        <v>572</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>566</v>
+        <v>477</v>
       </c>
       <c r="M44" s="7">
         <v>35</v>
@@ -7673,13 +7679,13 @@
         <v>35747</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>405</v>
+        <v>502</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7694,13 +7700,13 @@
         <v>212065</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>43</v>
+        <v>576</v>
       </c>
       <c r="H45" s="7">
         <v>132</v>
@@ -7709,13 +7715,13 @@
         <v>144034</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="M45" s="7">
         <v>332</v>
@@ -7724,13 +7730,13 @@
         <v>356099</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>330</v>
+        <v>580</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7745,13 +7751,13 @@
         <v>830533</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="H46" s="7">
         <v>564</v>
@@ -7760,13 +7766,13 @@
         <v>612768</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="M46" s="7">
         <v>1337</v>
@@ -7775,13 +7781,13 @@
         <v>1443300</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7796,13 +7802,13 @@
         <v>284308</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>136</v>
+        <v>591</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>584</v>
+        <v>354</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="H47" s="7">
         <v>185</v>
@@ -7811,13 +7817,13 @@
         <v>201502</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="M47" s="7">
         <v>456</v>
@@ -7826,13 +7832,13 @@
         <v>485809</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>81</v>
+        <v>596</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7888,7 +7894,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -7912,7 +7918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B18D44-52B3-412C-8BCB-5AC04426B79C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C665C4B6-F86E-48CC-BAFF-55C18ED52A2C}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7929,7 +7935,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8036,13 +8042,13 @@
         <v>983</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>591</v>
+        <v>413</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>592</v>
+        <v>449</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -8051,13 +8057,13 @@
         <v>1973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>600</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -8066,13 +8072,13 @@
         <v>2956</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>406</v>
+        <v>602</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8087,13 +8093,13 @@
         <v>25293</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -8102,13 +8108,13 @@
         <v>11982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>290</v>
+        <v>609</v>
       </c>
       <c r="M5" s="7">
         <v>33</v>
@@ -8117,13 +8123,13 @@
         <v>37276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>601</v>
+        <v>610</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>602</v>
+        <v>611</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>603</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8138,13 +8144,13 @@
         <v>66970</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
@@ -8153,13 +8159,13 @@
         <v>51895</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="M6" s="7">
         <v>113</v>
@@ -8168,13 +8174,13 @@
         <v>118865</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>610</v>
+        <v>619</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>611</v>
+        <v>620</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>612</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8189,13 +8195,13 @@
         <v>12248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>613</v>
+        <v>622</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>614</v>
+        <v>401</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>615</v>
+        <v>623</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -8204,13 +8210,13 @@
         <v>7863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>616</v>
+        <v>624</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>617</v>
+        <v>625</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>618</v>
+        <v>626</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -8219,13 +8225,13 @@
         <v>20112</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>627</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>619</v>
+        <v>418</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>620</v>
+        <v>628</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,13 +8299,13 @@
         <v>3109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>621</v>
+        <v>479</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>622</v>
+        <v>629</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>299</v>
+        <v>630</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -8308,13 +8314,13 @@
         <v>3045</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>623</v>
+        <v>631</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>624</v>
+        <v>632</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>625</v>
+        <v>633</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -8323,13 +8329,13 @@
         <v>6154</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>626</v>
+        <v>634</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>237</v>
+        <v>636</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,13 +8350,13 @@
         <v>38384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>628</v>
+        <v>637</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>629</v>
+        <v>638</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -8359,13 +8365,13 @@
         <v>24095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>632</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -8374,13 +8380,13 @@
         <v>62480</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>634</v>
+        <v>642</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>635</v>
+        <v>643</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>524</v>
+        <v>644</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8395,13 +8401,13 @@
         <v>75286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>636</v>
+        <v>645</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>637</v>
+        <v>646</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>638</v>
+        <v>647</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -8410,13 +8416,13 @@
         <v>64175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>639</v>
+        <v>648</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>640</v>
+        <v>649</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>641</v>
+        <v>650</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -8425,13 +8431,13 @@
         <v>139462</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>642</v>
+        <v>651</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>644</v>
+        <v>653</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8446,13 +8452,13 @@
         <v>88090</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>645</v>
+        <v>654</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>647</v>
+        <v>656</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -8461,13 +8467,13 @@
         <v>47544</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>648</v>
+        <v>657</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>273</v>
+        <v>658</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
@@ -8476,13 +8482,13 @@
         <v>135635</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>650</v>
+        <v>660</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>651</v>
+        <v>661</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>652</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8538,7 +8544,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -8550,13 +8556,13 @@
         <v>7669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>653</v>
+        <v>663</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>654</v>
+        <v>664</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>477</v>
+        <v>665</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -8565,13 +8571,13 @@
         <v>3723</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>655</v>
+        <v>630</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>666</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>656</v>
+        <v>667</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -8580,13 +8586,13 @@
         <v>11392</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>658</v>
+        <v>237</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8601,13 +8607,13 @@
         <v>14258</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>660</v>
+        <v>670</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>661</v>
+        <v>671</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>662</v>
+        <v>672</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -8616,13 +8622,13 @@
         <v>5305</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>657</v>
+        <v>668</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>663</v>
+        <v>482</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>442</v>
+        <v>673</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -8631,13 +8637,13 @@
         <v>19563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>664</v>
+        <v>674</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>665</v>
+        <v>675</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>666</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8652,13 +8658,13 @@
         <v>57113</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -8667,13 +8673,13 @@
         <v>56683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -8682,13 +8688,13 @@
         <v>113796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8703,13 +8709,13 @@
         <v>14328</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>678</v>
+        <v>533</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -8718,13 +8724,13 @@
         <v>15692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -8733,13 +8739,13 @@
         <v>30021</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>333</v>
+        <v>690</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>460</v>
+        <v>692</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8795,7 +8801,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -8807,13 +8813,13 @@
         <v>4218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>225</v>
+        <v>693</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8828,7 +8834,7 @@
         <v>162</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8837,13 +8843,13 @@
         <v>4218</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>685</v>
+        <v>696</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>686</v>
+        <v>697</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>535</v>
+        <v>603</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8858,13 +8864,13 @@
         <v>21490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>687</v>
+        <v>698</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>688</v>
+        <v>699</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>689</v>
+        <v>700</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -8873,13 +8879,13 @@
         <v>27286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>690</v>
+        <v>701</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>333</v>
+        <v>702</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>691</v>
+        <v>703</v>
       </c>
       <c r="M20" s="7">
         <v>44</v>
@@ -8888,13 +8894,13 @@
         <v>48775</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>692</v>
+        <v>704</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>693</v>
+        <v>705</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>694</v>
+        <v>706</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8909,13 +8915,13 @@
         <v>89678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>695</v>
+        <v>707</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>696</v>
+        <v>708</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>697</v>
+        <v>709</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -8924,13 +8930,13 @@
         <v>54356</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>698</v>
+        <v>710</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>699</v>
+        <v>711</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>700</v>
+        <v>712</v>
       </c>
       <c r="M21" s="7">
         <v>134</v>
@@ -8939,13 +8945,13 @@
         <v>144034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>701</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>583</v>
+        <v>713</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8960,13 +8966,13 @@
         <v>23901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>702</v>
+        <v>714</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>703</v>
+        <v>715</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>704</v>
+        <v>716</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -8975,13 +8981,13 @@
         <v>27115</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>705</v>
+        <v>717</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>706</v>
+        <v>718</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>707</v>
+        <v>719</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -8990,13 +8996,13 @@
         <v>51017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>708</v>
+        <v>720</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>709</v>
+        <v>721</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>710</v>
+        <v>722</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9070,7 +9076,7 @@
         <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>566</v>
+        <v>723</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -9079,13 +9085,13 @@
         <v>2742</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>711</v>
+        <v>724</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>712</v>
+        <v>725</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -9094,13 +9100,13 @@
         <v>2742</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>714</v>
+        <v>727</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>715</v>
+        <v>443</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>716</v>
+        <v>728</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9115,13 +9121,13 @@
         <v>7364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>717</v>
+        <v>729</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>719</v>
+        <v>731</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -9130,13 +9136,13 @@
         <v>4826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>720</v>
+        <v>127</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -9145,13 +9151,13 @@
         <v>12190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9166,13 +9172,13 @@
         <v>55725</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>727</v>
+        <v>738</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>728</v>
+        <v>739</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -9181,13 +9187,13 @@
         <v>41727</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="M26" s="7">
         <v>97</v>
@@ -9196,13 +9202,13 @@
         <v>97452</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>734</v>
+        <v>745</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9217,13 +9223,13 @@
         <v>18867</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>735</v>
+        <v>746</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>736</v>
+        <v>747</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>737</v>
+        <v>748</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -9232,13 +9238,13 @@
         <v>7348</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>156</v>
+        <v>749</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>738</v>
+        <v>233</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>739</v>
+        <v>750</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -9247,13 +9253,13 @@
         <v>26215</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>740</v>
+        <v>751</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>741</v>
+        <v>752</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9309,7 +9315,7 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>10</v>
@@ -9321,13 +9327,13 @@
         <v>5034</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>742</v>
+        <v>753</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>623</v>
+        <v>754</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -9336,13 +9342,13 @@
         <v>3916</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>470</v>
+        <v>129</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -9351,13 +9357,13 @@
         <v>8951</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9375,10 +9381,10 @@
         <v>44</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>748</v>
+        <v>481</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>749</v>
+        <v>760</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -9387,13 +9393,13 @@
         <v>14806</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>258</v>
+        <v>761</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>750</v>
+        <v>180</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -9402,13 +9408,13 @@
         <v>25542</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>751</v>
+        <v>762</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>256</v>
+        <v>763</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9423,13 +9429,13 @@
         <v>58837</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>754</v>
+        <v>143</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>755</v>
+        <v>766</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -9438,13 +9444,13 @@
         <v>39588</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>756</v>
+        <v>767</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>757</v>
+        <v>768</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>358</v>
+        <v>769</v>
       </c>
       <c r="M31" s="7">
         <v>95</v>
@@ -9453,13 +9459,13 @@
         <v>98425</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>759</v>
+        <v>771</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>760</v>
+        <v>772</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9474,13 +9480,13 @@
         <v>13622</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>761</v>
+        <v>773</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>762</v>
+        <v>13</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>763</v>
+        <v>774</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -9489,13 +9495,13 @@
         <v>13580</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>765</v>
+        <v>776</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>77</v>
+        <v>777</v>
       </c>
       <c r="M32" s="7">
         <v>25</v>
@@ -9504,13 +9510,13 @@
         <v>27202</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>767</v>
+        <v>483</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>768</v>
+        <v>779</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -9578,13 +9584,13 @@
         <v>4303</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>769</v>
+        <v>780</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9593,13 +9599,13 @@
         <v>3427</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>773</v>
+        <v>52</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -9608,13 +9614,13 @@
         <v>7730</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>775</v>
+        <v>238</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>776</v>
+        <v>785</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>777</v>
+        <v>786</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9629,13 +9635,13 @@
         <v>66065</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>778</v>
+        <v>787</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>779</v>
+        <v>788</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>780</v>
+        <v>789</v>
       </c>
       <c r="H35" s="7">
         <v>57</v>
@@ -9644,13 +9650,13 @@
         <v>58741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>603</v>
+        <v>791</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>782</v>
+        <v>323</v>
       </c>
       <c r="M35" s="7">
         <v>114</v>
@@ -9659,13 +9665,13 @@
         <v>124806</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>106</v>
+        <v>792</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>783</v>
+        <v>793</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>784</v>
+        <v>794</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9680,13 +9686,13 @@
         <v>94229</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>785</v>
+        <v>795</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>786</v>
+        <v>796</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>787</v>
+        <v>206</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -9695,13 +9701,13 @@
         <v>89224</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>789</v>
+        <v>798</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>790</v>
+        <v>799</v>
       </c>
       <c r="M36" s="7">
         <v>164</v>
@@ -9710,13 +9716,13 @@
         <v>183453</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>791</v>
+        <v>800</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>792</v>
+        <v>647</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9731,13 +9737,13 @@
         <v>30966</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>796</v>
+        <v>804</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -9746,13 +9752,13 @@
         <v>19901</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>797</v>
+        <v>805</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>799</v>
+        <v>807</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -9761,13 +9767,13 @@
         <v>50868</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>800</v>
+        <v>808</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>801</v>
+        <v>667</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>802</v>
+        <v>809</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9823,7 +9829,7 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>10</v>
@@ -9835,13 +9841,13 @@
         <v>7600</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>803</v>
+        <v>810</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>804</v>
+        <v>811</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>125</v>
+        <v>812</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -9850,13 +9856,13 @@
         <v>4074</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>805</v>
+        <v>813</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>806</v>
+        <v>539</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>807</v>
+        <v>814</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -9865,13 +9871,13 @@
         <v>11674</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>809</v>
+        <v>816</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>810</v>
+        <v>603</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9886,13 +9892,13 @@
         <v>45763</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>812</v>
+        <v>581</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="H40" s="7">
         <v>34</v>
@@ -9901,13 +9907,13 @@
         <v>36042</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>816</v>
+        <v>821</v>
       </c>
       <c r="M40" s="7">
         <v>77</v>
@@ -9916,13 +9922,13 @@
         <v>81805</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>817</v>
+        <v>822</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>818</v>
+        <v>823</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>274</v>
+        <v>824</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9937,13 +9943,13 @@
         <v>151791</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>819</v>
+        <v>825</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>820</v>
+        <v>23</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>821</v>
+        <v>826</v>
       </c>
       <c r="H41" s="7">
         <v>118</v>
@@ -9952,13 +9958,13 @@
         <v>124446</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>611</v>
+        <v>827</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>822</v>
+        <v>828</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>823</v>
+        <v>829</v>
       </c>
       <c r="M41" s="7">
         <v>261</v>
@@ -9967,13 +9973,13 @@
         <v>276237</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>824</v>
+        <v>830</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>825</v>
+        <v>831</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>826</v>
+        <v>832</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -9988,13 +9994,13 @@
         <v>49062</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>827</v>
+        <v>833</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>694</v>
+        <v>91</v>
       </c>
       <c r="H42" s="7">
         <v>45</v>
@@ -10003,13 +10009,13 @@
         <v>46581</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>495</v>
+        <v>836</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>830</v>
+        <v>837</v>
       </c>
       <c r="M42" s="7">
         <v>91</v>
@@ -10018,13 +10024,13 @@
         <v>95643</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>831</v>
+        <v>838</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>832</v>
+        <v>839</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>833</v>
+        <v>840</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10092,13 +10098,13 @@
         <v>32917</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>834</v>
+        <v>841</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>835</v>
+        <v>842</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>271</v>
+        <v>843</v>
       </c>
       <c r="H44" s="7">
         <v>23</v>
@@ -10107,13 +10113,13 @@
         <v>22900</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>808</v>
+        <v>815</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>836</v>
+        <v>569</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>837</v>
+        <v>844</v>
       </c>
       <c r="M44" s="7">
         <v>55</v>
@@ -10122,13 +10128,13 @@
         <v>55817</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>839</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10143,13 +10149,13 @@
         <v>229354</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>840</v>
+        <v>847</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>841</v>
+        <v>848</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>842</v>
+        <v>849</v>
       </c>
       <c r="H45" s="7">
         <v>178</v>
@@ -10158,13 +10164,13 @@
         <v>183082</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>843</v>
+        <v>850</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>844</v>
+        <v>822</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>845</v>
+        <v>851</v>
       </c>
       <c r="M45" s="7">
         <v>387</v>
@@ -10173,13 +10179,13 @@
         <v>412436</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>846</v>
+        <v>108</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>847</v>
+        <v>852</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>848</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10194,13 +10200,13 @@
         <v>649628</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="H46" s="7">
         <v>508</v>
@@ -10209,13 +10215,13 @@
         <v>522094</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>149</v>
+        <v>857</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>853</v>
+        <v>858</v>
       </c>
       <c r="M46" s="7">
         <v>1112</v>
@@ -10224,13 +10230,13 @@
         <v>1171722</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>854</v>
+        <v>708</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10245,13 +10251,13 @@
         <v>251086</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>858</v>
+        <v>833</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="H47" s="7">
         <v>176</v>
@@ -10260,13 +10266,13 @@
         <v>185625</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>226</v>
+        <v>864</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>861</v>
+        <v>527</v>
       </c>
       <c r="M47" s="7">
         <v>412</v>
@@ -10275,13 +10281,13 @@
         <v>436711</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>863</v>
+        <v>596</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -10337,7 +10343,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P24F-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P24F-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8925B660-A4EC-420F-AD36-73A53390E67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC3F6D1B-4383-4195-9E87-FDED8B220349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{98EC4328-0D21-4ACA-B858-3C75019C1524}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{09ED2889-DB6D-40AD-8869-5F58AB75BBC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="879">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="906">
   <si>
     <t>Población según si le gustaría dejar de fumar en 2007 (Tasa respuesta: 33,67%)</t>
   </si>
@@ -1054,7 +1054,109 @@
     <t>Población según si le gustaría dejar de fumar en 2012 (Tasa respuesta: 33,2%)</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>15,48%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>64,89%</t>
+  </si>
+  <si>
+    <t>83,16%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
   </si>
   <si>
     <t>0,46%</t>
@@ -1255,1152 +1357,1134 @@
     <t>21,78%</t>
   </si>
   <si>
-    <t>2,01%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>32,11%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>53,0%</t>
+  </si>
+  <si>
+    <t>71,01%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>61,96%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>63,03%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>64,33%</t>
+  </si>
+  <si>
+    <t>51,0%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>35,53%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>64,12%</t>
+  </si>
+  <si>
+    <t>53,5%</t>
+  </si>
+  <si>
+    <t>74,6%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>76,09%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>58,07%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>49,17%</t>
+  </si>
+  <si>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>62,46%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>34,49%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>46,51%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>53,52%</t>
+  </si>
+  <si>
+    <t>45,37%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>53,12%</t>
+  </si>
+  <si>
+    <t>48,5%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>24,54%</t>
+  </si>
+  <si>
+    <t>30,07%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>61,58%</t>
+  </si>
+  <si>
+    <t>58,76%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>59,86%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>63,48%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>72,58%</t>
+  </si>
+  <si>
+    <t>70,4%</t>
+  </si>
+  <si>
+    <t>59,4%</t>
+  </si>
+  <si>
+    <t>66,33%</t>
+  </si>
+  <si>
+    <t>58,94%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>25,84%</t>
+  </si>
+  <si>
+    <t>17,35%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>18,18%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>36,75%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
+  </si>
+  <si>
+    <t>46,22%</t>
+  </si>
+  <si>
+    <t>36,97%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>40,57%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>46,25%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>34,24%</t>
+  </si>
+  <si>
+    <t>42,68%</t>
+  </si>
+  <si>
+    <t>39,46%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>44,83%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>65,11%</t>
+  </si>
+  <si>
+    <t>57,51%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>11,37%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>55,06%</t>
+  </si>
+  <si>
+    <t>72,97%</t>
+  </si>
+  <si>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>61,71%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>64,29%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>24,83%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>20,57%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>77,75%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>70,31%</t>
+  </si>
+  <si>
+    <t>61,86%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>23,78%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>76,08%</t>
+  </si>
+  <si>
+    <t>55,07%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>61,47%</t>
+  </si>
+  <si>
+    <t>53,45%</t>
+  </si>
+  <si>
+    <t>69,04%</t>
+  </si>
+  <si>
+    <t>15,44%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>69,62%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
-  </si>
-  <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>73,18%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>78,95%</t>
-  </si>
-  <si>
-    <t>71,15%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>75,03%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>25,13%</t>
-  </si>
-  <si>
-    <t>63,03%</t>
-  </si>
-  <si>
-    <t>51,39%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>64,33%</t>
-  </si>
-  <si>
-    <t>51,0%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>35,53%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>64,12%</t>
-  </si>
-  <si>
-    <t>53,5%</t>
-  </si>
-  <si>
-    <t>74,6%</t>
-  </si>
-  <si>
-    <t>75,32%</t>
-  </si>
-  <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>58,07%</t>
-  </si>
-  <si>
-    <t>51,69%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>49,17%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>34,49%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>22,21%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>46,51%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>53,52%</t>
-  </si>
-  <si>
-    <t>45,37%</t>
-  </si>
-  <si>
-    <t>60,28%</t>
-  </si>
-  <si>
-    <t>53,12%</t>
-  </si>
-  <si>
-    <t>48,5%</t>
-  </si>
-  <si>
-    <t>58,01%</t>
-  </si>
-  <si>
-    <t>24,54%</t>
-  </si>
-  <si>
-    <t>30,07%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>17,82%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>61,58%</t>
-  </si>
-  <si>
-    <t>58,76%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>66,3%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>Población según si le gustaría dejar de fumar en 2016 (Tasa respuesta: 29,93%)</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
-  </si>
-  <si>
-    <t>63,48%</t>
-  </si>
-  <si>
-    <t>52,04%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>70,4%</t>
-  </si>
-  <si>
-    <t>59,4%</t>
-  </si>
-  <si>
-    <t>80,06%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>58,94%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>25,84%</t>
-  </si>
-  <si>
-    <t>17,35%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>36,75%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>46,22%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>54,92%</t>
-  </si>
-  <si>
-    <t>40,57%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>46,25%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>34,24%</t>
-  </si>
-  <si>
-    <t>42,68%</t>
-  </si>
-  <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>69,63%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>65,11%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>71,71%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>11,37%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>55,06%</t>
-  </si>
-  <si>
-    <t>72,97%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>64,29%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>20,57%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>57,21%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>70,31%</t>
-  </si>
-  <si>
-    <t>61,86%</t>
-  </si>
-  <si>
-    <t>77,38%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>6,26%</t>
-  </si>
-  <si>
-    <t>23,78%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>55,53%</t>
-  </si>
-  <si>
-    <t>76,08%</t>
-  </si>
-  <si>
-    <t>55,07%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>61,47%</t>
-  </si>
-  <si>
-    <t>53,45%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
     <t>33,78%</t>
   </si>
   <si>
@@ -2531,9 +2615,6 @@
   </si>
   <si>
     <t>21,34%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
   </si>
   <si>
     <t>52,69%</t>
@@ -3086,7 +3167,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{999713D6-FB76-4A0B-92F2-99C3085A7D47}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF04CE0-B8BE-47F1-96D8-45B53625FB20}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -5535,7 +5616,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936E6E02-166C-4371-9069-FA4F6DF5E717}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1525B1C3-8D3B-4BEB-A6BB-A584E7B86722}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5653,43 +5734,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D4" s="7">
+        <v>4408</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>338</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4334</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>8742</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5698,43 +5785,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="7">
+        <v>15111</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>338</v>
+        <v>349</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>8025</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>21</v>
+      </c>
+      <c r="N5" s="7">
+        <v>23136</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5743,43 +5836,49 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>100</v>
+      </c>
+      <c r="D6" s="7">
+        <v>103939</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>338</v>
+        <v>357</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>61</v>
+      </c>
+      <c r="I6" s="7">
+        <v>73429</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>338</v>
+        <v>359</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>338</v>
+        <v>360</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>338</v>
+        <v>361</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>161</v>
+      </c>
+      <c r="N6" s="7">
+        <v>177369</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>338</v>
+        <v>364</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5788,43 +5887,49 @@
         <v>39</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>13</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13021</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>338</v>
+        <v>366</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="I7" s="7">
+        <v>12143</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>338</v>
+        <v>368</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>25</v>
+      </c>
+      <c r="N7" s="7">
+        <v>25164</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5833,43 +5938,49 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>131</v>
+      </c>
+      <c r="D8" s="7">
+        <v>136480</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="I8" s="7">
+        <v>97931</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>215</v>
+      </c>
+      <c r="N8" s="7">
+        <v>234411</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>338</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5997,13 @@
         <v>954</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -5901,13 +6012,13 @@
         <v>1995</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -5919,10 +6030,10 @@
         <v>53</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +6048,13 @@
         <v>26046</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -5952,13 +6063,13 @@
         <v>26120</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>384</v>
       </c>
       <c r="M10" s="7">
         <v>52</v>
@@ -5967,13 +6078,13 @@
         <v>52166</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>385</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>386</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5988,13 +6099,13 @@
         <v>135745</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>388</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="H11" s="7">
         <v>81</v>
@@ -6003,13 +6114,13 @@
         <v>87893</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="M11" s="7">
         <v>204</v>
@@ -6018,13 +6129,13 @@
         <v>223638</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>362</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,13 +6150,13 @@
         <v>43067</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="H12" s="7">
         <v>30</v>
@@ -6054,13 +6165,13 @@
         <v>35209</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -6069,13 +6180,13 @@
         <v>78276</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6143,13 +6254,13 @@
         <v>1943</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -6158,13 +6269,13 @@
         <v>1276</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -6173,10 +6284,10 @@
         <v>3219</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>14</v>
@@ -6194,13 +6305,13 @@
         <v>19992</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="H15" s="7">
         <v>10</v>
@@ -6209,13 +6320,13 @@
         <v>12354</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="M15" s="7">
         <v>30</v>
@@ -6224,13 +6335,13 @@
         <v>32346</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,13 +6356,13 @@
         <v>79969</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="H16" s="7">
         <v>59</v>
@@ -6260,13 +6371,13 @@
         <v>63578</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="M16" s="7">
         <v>137</v>
@@ -6275,13 +6386,13 @@
         <v>143548</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6296,13 +6407,13 @@
         <v>25133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="H17" s="7">
         <v>10</v>
@@ -6311,13 +6422,13 @@
         <v>10225</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>399</v>
+        <v>433</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="M17" s="7">
         <v>36</v>
@@ -6326,13 +6437,13 @@
         <v>35359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,49 +6505,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>5349</v>
+        <v>941</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>51</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="H19" s="7">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I19" s="7">
-        <v>4334</v>
+        <v>0</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>408</v>
+        <v>51</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>409</v>
+        <v>162</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
       <c r="M19" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="N19" s="7">
-        <v>9683</v>
+        <v>941</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>412</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>194</v>
+        <v>443</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,49 +6556,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D20" s="7">
-        <v>46132</v>
+        <v>31021</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>445</v>
       </c>
       <c r="H20" s="7">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="I20" s="7">
-        <v>21413</v>
+        <v>13388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>446</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>417</v>
+        <v>447</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>418</v>
+        <v>448</v>
       </c>
       <c r="M20" s="7">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="N20" s="7">
-        <v>67545</v>
+        <v>44409</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>421</v>
+        <v>451</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6496,49 +6607,49 @@
         <v>30</v>
       </c>
       <c r="C21" s="7">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="D21" s="7">
-        <v>185555</v>
+        <v>81616</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>422</v>
+        <v>452</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>424</v>
+        <v>454</v>
       </c>
       <c r="H21" s="7">
-        <v>132</v>
+        <v>71</v>
       </c>
       <c r="I21" s="7">
-        <v>147089</v>
+        <v>73660</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>425</v>
+        <v>455</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>426</v>
+        <v>456</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>427</v>
+        <v>457</v>
       </c>
       <c r="M21" s="7">
-        <v>303</v>
+        <v>142</v>
       </c>
       <c r="N21" s="7">
-        <v>332645</v>
+        <v>155276</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>428</v>
+        <v>458</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>429</v>
+        <v>459</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>430</v>
+        <v>460</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6547,49 +6658,49 @@
         <v>39</v>
       </c>
       <c r="C22" s="7">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="D22" s="7">
-        <v>29505</v>
+        <v>16484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>431</v>
+        <v>461</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>432</v>
+        <v>462</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="H22" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I22" s="7">
-        <v>28174</v>
+        <v>16031</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>434</v>
+        <v>464</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>435</v>
+        <v>465</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>436</v>
+        <v>466</v>
       </c>
       <c r="M22" s="7">
-        <v>56</v>
+        <v>31</v>
       </c>
       <c r="N22" s="7">
-        <v>57679</v>
+        <v>32515</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>437</v>
+        <v>467</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>438</v>
+        <v>468</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>439</v>
+        <v>469</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6598,10 +6709,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>248</v>
+        <v>117</v>
       </c>
       <c r="D23" s="7">
-        <v>266541</v>
+        <v>130062</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>48</v>
@@ -6613,10 +6724,10 @@
         <v>48</v>
       </c>
       <c r="H23" s="7">
-        <v>183</v>
+        <v>99</v>
       </c>
       <c r="I23" s="7">
-        <v>201010</v>
+        <v>103079</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>48</v>
@@ -6628,10 +6739,10 @@
         <v>48</v>
       </c>
       <c r="M23" s="7">
-        <v>431</v>
+        <v>216</v>
       </c>
       <c r="N23" s="7">
-        <v>467552</v>
+        <v>233141</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>48</v>
@@ -6657,7 +6768,7 @@
         <v>940</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>51</v>
@@ -6678,7 +6789,7 @@
         <v>162</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="M24" s="7">
         <v>1</v>
@@ -6687,13 +6798,13 @@
         <v>940</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>442</v>
+        <v>472</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>51</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>443</v>
+        <v>473</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6708,13 +6819,13 @@
         <v>19848</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>444</v>
+        <v>474</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>445</v>
+        <v>475</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -6723,13 +6834,13 @@
         <v>8040</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>448</v>
+        <v>478</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>449</v>
+        <v>479</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -6738,13 +6849,13 @@
         <v>27888</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>450</v>
+        <v>480</v>
       </c>
       <c r="P25" s="7" t="s">
         <v>116</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>451</v>
+        <v>481</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,13 +6870,13 @@
         <v>57606</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>453</v>
+        <v>483</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>454</v>
+        <v>484</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -6774,13 +6885,13 @@
         <v>42094</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>456</v>
+        <v>486</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>457</v>
+        <v>487</v>
       </c>
       <c r="M26" s="7">
         <v>96</v>
@@ -6789,13 +6900,13 @@
         <v>99701</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>458</v>
+        <v>488</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6810,13 +6921,13 @@
         <v>13005</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>461</v>
+        <v>491</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>462</v>
+        <v>492</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>463</v>
+        <v>493</v>
       </c>
       <c r="H27" s="7">
         <v>15</v>
@@ -6825,13 +6936,13 @@
         <v>15305</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>464</v>
+        <v>494</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>466</v>
+        <v>495</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -6840,13 +6951,13 @@
         <v>28310</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>467</v>
+        <v>496</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>468</v>
+        <v>497</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>469</v>
+        <v>498</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6914,13 +7025,13 @@
         <v>987</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>470</v>
+        <v>499</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>471</v>
+        <v>500</v>
       </c>
       <c r="H29" s="7">
         <v>1</v>
@@ -6929,13 +7040,13 @@
         <v>1057</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>472</v>
+        <v>501</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>51</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>473</v>
+        <v>502</v>
       </c>
       <c r="M29" s="7">
         <v>2</v>
@@ -6950,7 +7061,7 @@
         <v>51</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>474</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6965,13 +7076,13 @@
         <v>5861</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>477</v>
+        <v>506</v>
       </c>
       <c r="H30" s="7">
         <v>3</v>
@@ -6980,13 +7091,13 @@
         <v>3814</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>478</v>
+        <v>507</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>479</v>
+        <v>508</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="M30" s="7">
         <v>9</v>
@@ -6995,13 +7106,13 @@
         <v>9676</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>481</v>
+        <v>510</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>482</v>
+        <v>511</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>483</v>
+        <v>512</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7016,13 +7127,13 @@
         <v>53692</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>484</v>
+        <v>513</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>485</v>
+        <v>514</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>486</v>
+        <v>515</v>
       </c>
       <c r="H31" s="7">
         <v>48</v>
@@ -7031,13 +7142,13 @@
         <v>50374</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>487</v>
+        <v>516</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>489</v>
+        <v>518</v>
       </c>
       <c r="M31" s="7">
         <v>99</v>
@@ -7046,13 +7157,13 @@
         <v>104065</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>490</v>
+        <v>519</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>491</v>
+        <v>520</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>492</v>
+        <v>521</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7067,13 +7178,13 @@
         <v>23199</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>493</v>
+        <v>522</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>494</v>
+        <v>523</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>495</v>
+        <v>524</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -7085,10 +7196,10 @@
         <v>329</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>496</v>
+        <v>525</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>497</v>
+        <v>526</v>
       </c>
       <c r="M32" s="7">
         <v>36</v>
@@ -7097,13 +7208,13 @@
         <v>34834</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>500</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7171,13 +7282,13 @@
         <v>5897</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>501</v>
+        <v>530</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>502</v>
+        <v>339</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>503</v>
+        <v>531</v>
       </c>
       <c r="H34" s="7">
         <v>2</v>
@@ -7192,7 +7303,7 @@
         <v>51</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>504</v>
+        <v>532</v>
       </c>
       <c r="M34" s="7">
         <v>8</v>
@@ -7201,13 +7312,13 @@
         <v>8052</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>505</v>
+        <v>533</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>506</v>
+        <v>534</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>507</v>
+        <v>535</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7222,13 +7333,13 @@
         <v>32975</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>508</v>
+        <v>536</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>509</v>
+        <v>537</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>510</v>
+        <v>538</v>
       </c>
       <c r="H35" s="7">
         <v>20</v>
@@ -7237,13 +7348,13 @@
         <v>21540</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>511</v>
+        <v>539</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>512</v>
+        <v>540</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>513</v>
+        <v>541</v>
       </c>
       <c r="M35" s="7">
         <v>50</v>
@@ -7252,13 +7363,13 @@
         <v>54515</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>514</v>
+        <v>542</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>515</v>
+        <v>543</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7273,13 +7384,13 @@
         <v>161502</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>518</v>
+        <v>546</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>455</v>
+        <v>485</v>
       </c>
       <c r="H36" s="7">
         <v>102</v>
@@ -7288,13 +7399,13 @@
         <v>110486</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>519</v>
+        <v>547</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>520</v>
+        <v>548</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>521</v>
+        <v>549</v>
       </c>
       <c r="M36" s="7">
         <v>254</v>
@@ -7303,13 +7414,13 @@
         <v>271988</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>523</v>
+        <v>551</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>524</v>
+        <v>552</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7324,13 +7435,13 @@
         <v>77726</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>525</v>
+        <v>553</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>526</v>
+        <v>554</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>527</v>
+        <v>555</v>
       </c>
       <c r="H37" s="7">
         <v>52</v>
@@ -7339,13 +7450,13 @@
         <v>58146</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>528</v>
+        <v>556</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>529</v>
+        <v>557</v>
       </c>
       <c r="M37" s="7">
         <v>126</v>
@@ -7354,13 +7465,13 @@
         <v>135872</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>530</v>
+        <v>558</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>531</v>
+        <v>559</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>532</v>
+        <v>560</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7428,13 +7539,13 @@
         <v>5809</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>533</v>
+        <v>561</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>412</v>
+        <v>562</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>534</v>
+        <v>563</v>
       </c>
       <c r="H39" s="7">
         <v>3</v>
@@ -7443,10 +7554,10 @@
         <v>3052</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>535</v>
+        <v>564</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="L39" s="7" t="s">
         <v>268</v>
@@ -7458,13 +7569,13 @@
         <v>8860</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>536</v>
+        <v>565</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>538</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -7479,13 +7590,13 @@
         <v>61211</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>539</v>
+        <v>568</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="H40" s="7">
         <v>47</v>
@@ -7494,13 +7605,13 @@
         <v>50752</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>543</v>
+        <v>572</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>544</v>
+        <v>573</v>
       </c>
       <c r="M40" s="7">
         <v>104</v>
@@ -7509,13 +7620,13 @@
         <v>111963</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>545</v>
+        <v>574</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>547</v>
+        <v>576</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7530,13 +7641,13 @@
         <v>156463</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>548</v>
+        <v>577</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>549</v>
+        <v>578</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>550</v>
+        <v>579</v>
       </c>
       <c r="H41" s="7">
         <v>100</v>
@@ -7545,13 +7656,13 @@
         <v>111254</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>551</v>
+        <v>580</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>552</v>
+        <v>581</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="M41" s="7">
         <v>244</v>
@@ -7560,13 +7671,13 @@
         <v>267717</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>554</v>
+        <v>583</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>555</v>
+        <v>584</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>556</v>
+        <v>585</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7581,13 +7692,13 @@
         <v>72671</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="F42" s="7" t="s">
         <v>104</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>558</v>
+        <v>587</v>
       </c>
       <c r="H42" s="7">
         <v>39</v>
@@ -7596,13 +7707,13 @@
         <v>42809</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>516</v>
+        <v>544</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>560</v>
+        <v>589</v>
       </c>
       <c r="M42" s="7">
         <v>106</v>
@@ -7611,13 +7722,13 @@
         <v>115481</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>561</v>
+        <v>590</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>562</v>
+        <v>591</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>563</v>
+        <v>592</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7685,13 +7796,13 @@
         <v>21878</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>564</v>
+        <v>593</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>440</v>
+        <v>470</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>565</v>
+        <v>594</v>
       </c>
       <c r="H44" s="7">
         <v>13</v>
@@ -7700,13 +7811,13 @@
         <v>13869</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>566</v>
+        <v>595</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>567</v>
+        <v>596</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>568</v>
+        <v>597</v>
       </c>
       <c r="M44" s="7">
         <v>35</v>
@@ -7715,13 +7826,13 @@
         <v>35747</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>569</v>
+        <v>598</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>570</v>
+        <v>599</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>571</v>
+        <v>600</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7736,13 +7847,13 @@
         <v>212065</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>573</v>
+        <v>602</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>574</v>
+        <v>603</v>
       </c>
       <c r="H45" s="7">
         <v>132</v>
@@ -7751,13 +7862,13 @@
         <v>144034</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>575</v>
+        <v>604</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>576</v>
+        <v>605</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="M45" s="7">
         <v>332</v>
@@ -7766,13 +7877,13 @@
         <v>356099</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>577</v>
+        <v>606</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>578</v>
+        <v>607</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>579</v>
+        <v>608</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7787,13 +7898,13 @@
         <v>830533</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>580</v>
+        <v>609</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>581</v>
+        <v>610</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>582</v>
+        <v>611</v>
       </c>
       <c r="H46" s="7">
         <v>564</v>
@@ -7802,28 +7913,28 @@
         <v>612768</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>452</v>
+        <v>482</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>583</v>
+        <v>612</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>584</v>
+        <v>613</v>
       </c>
       <c r="M46" s="7">
         <v>1337</v>
       </c>
       <c r="N46" s="7">
-        <v>1443300</v>
+        <v>1443301</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>585</v>
+        <v>614</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>586</v>
+        <v>615</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>587</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7838,13 +7949,13 @@
         <v>284308</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>588</v>
+        <v>617</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>589</v>
+        <v>618</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>590</v>
+        <v>619</v>
       </c>
       <c r="H47" s="7">
         <v>185</v>
@@ -7853,28 +7964,28 @@
         <v>201502</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>591</v>
+        <v>620</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>592</v>
+        <v>621</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>593</v>
+        <v>622</v>
       </c>
       <c r="M47" s="7">
         <v>456</v>
       </c>
       <c r="N47" s="7">
-        <v>485809</v>
+        <v>485810</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>363</v>
+        <v>397</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>594</v>
+        <v>623</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>595</v>
+        <v>624</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7916,7 +8027,7 @@
         <v>2160</v>
       </c>
       <c r="N48" s="7">
-        <v>2320956</v>
+        <v>2320957</v>
       </c>
       <c r="O48" s="7" t="s">
         <v>48</v>
@@ -7954,7 +8065,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E1739D1-8EE6-4826-8E43-7CFD6B3ABD00}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC905D1-499D-4A0B-9779-3374BD534DB5}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7971,7 +8082,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>596</v>
+        <v>625</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8078,13 +8189,13 @@
         <v>983</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>597</v>
+        <v>626</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>51</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>598</v>
+        <v>627</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -8093,7 +8204,7 @@
         <v>1973</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>599</v>
+        <v>628</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>51</v>
@@ -8108,13 +8219,13 @@
         <v>2956</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>600</v>
+        <v>629</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>601</v>
+        <v>630</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>602</v>
+        <v>631</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8129,13 +8240,13 @@
         <v>25293</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>603</v>
+        <v>632</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>604</v>
+        <v>464</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>605</v>
+        <v>633</v>
       </c>
       <c r="H5" s="7">
         <v>12</v>
@@ -8144,10 +8255,10 @@
         <v>11982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>606</v>
+        <v>634</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>607</v>
+        <v>635</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>293</v>
@@ -8159,13 +8270,13 @@
         <v>37276</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>608</v>
+        <v>636</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>609</v>
+        <v>637</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8180,13 +8291,13 @@
         <v>66970</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>611</v>
+        <v>639</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>612</v>
+        <v>640</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>613</v>
+        <v>641</v>
       </c>
       <c r="H6" s="7">
         <v>52</v>
@@ -8195,13 +8306,13 @@
         <v>51895</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>614</v>
+        <v>642</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>615</v>
+        <v>643</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>616</v>
+        <v>457</v>
       </c>
       <c r="M6" s="7">
         <v>113</v>
@@ -8210,13 +8321,13 @@
         <v>118865</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>617</v>
+        <v>644</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>619</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8231,13 +8342,13 @@
         <v>12248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>620</v>
+        <v>647</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>621</v>
+        <v>648</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>622</v>
+        <v>649</v>
       </c>
       <c r="H7" s="7">
         <v>7</v>
@@ -8246,13 +8357,13 @@
         <v>7863</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>623</v>
+        <v>650</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>198</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>624</v>
+        <v>651</v>
       </c>
       <c r="M7" s="7">
         <v>18</v>
@@ -8264,10 +8375,10 @@
         <v>16</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>626</v>
+        <v>653</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -8335,10 +8446,10 @@
         <v>3109</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>627</v>
+        <v>654</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>628</v>
+        <v>655</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>301</v>
@@ -8350,13 +8461,13 @@
         <v>3045</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>630</v>
+        <v>657</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>631</v>
+        <v>658</v>
       </c>
       <c r="M9" s="7">
         <v>6</v>
@@ -8365,10 +8476,10 @@
         <v>6154</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>632</v>
+        <v>659</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>633</v>
+        <v>660</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>237</v>
@@ -8386,13 +8497,13 @@
         <v>38384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>546</v>
+        <v>575</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>634</v>
+        <v>661</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>635</v>
+        <v>662</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -8401,13 +8512,13 @@
         <v>24095</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>636</v>
+        <v>663</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>637</v>
+        <v>664</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>638</v>
+        <v>665</v>
       </c>
       <c r="M10" s="7">
         <v>60</v>
@@ -8416,13 +8527,13 @@
         <v>62480</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>639</v>
+        <v>666</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>640</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8437,13 +8548,13 @@
         <v>75286</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>641</v>
+        <v>668</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>642</v>
+        <v>669</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>643</v>
+        <v>670</v>
       </c>
       <c r="H11" s="7">
         <v>60</v>
@@ -8452,13 +8563,13 @@
         <v>64175</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>644</v>
+        <v>671</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>645</v>
+        <v>672</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>646</v>
+        <v>673</v>
       </c>
       <c r="M11" s="7">
         <v>131</v>
@@ -8467,13 +8578,13 @@
         <v>139462</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>647</v>
+        <v>674</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>648</v>
+        <v>675</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>649</v>
+        <v>676</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -8488,13 +8599,13 @@
         <v>88090</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>650</v>
+        <v>677</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>651</v>
+        <v>678</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="H12" s="7">
         <v>45</v>
@@ -8503,13 +8614,13 @@
         <v>47544</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>653</v>
+        <v>680</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>275</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>654</v>
+        <v>681</v>
       </c>
       <c r="M12" s="7">
         <v>126</v>
@@ -8518,13 +8629,13 @@
         <v>135635</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>656</v>
+        <v>683</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>657</v>
+        <v>684</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -8592,13 +8703,13 @@
         <v>7669</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>658</v>
+        <v>685</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>659</v>
+        <v>686</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>509</v>
       </c>
       <c r="H14" s="7">
         <v>4</v>
@@ -8607,13 +8718,13 @@
         <v>3723</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>660</v>
+        <v>687</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>18</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>661</v>
+        <v>688</v>
       </c>
       <c r="M14" s="7">
         <v>12</v>
@@ -8622,13 +8733,13 @@
         <v>11392</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>663</v>
+        <v>690</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>664</v>
+        <v>691</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8643,13 +8754,13 @@
         <v>14258</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>665</v>
+        <v>692</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>666</v>
+        <v>693</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>667</v>
+        <v>694</v>
       </c>
       <c r="H15" s="7">
         <v>6</v>
@@ -8658,13 +8769,13 @@
         <v>5305</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>662</v>
+        <v>689</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>668</v>
+        <v>695</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>669</v>
+        <v>696</v>
       </c>
       <c r="M15" s="7">
         <v>21</v>
@@ -8673,13 +8784,13 @@
         <v>19563</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>670</v>
+        <v>697</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>671</v>
+        <v>698</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>672</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -8697,10 +8808,10 @@
         <v>96</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>673</v>
+        <v>700</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="H16" s="7">
         <v>58</v>
@@ -8709,13 +8820,13 @@
         <v>56683</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>675</v>
+        <v>702</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>676</v>
+        <v>703</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="M16" s="7">
         <v>117</v>
@@ -8724,13 +8835,13 @@
         <v>113796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>678</v>
+        <v>705</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>679</v>
+        <v>706</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>680</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8745,13 +8856,13 @@
         <v>14328</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>682</v>
+        <v>709</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>683</v>
+        <v>710</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -8760,13 +8871,13 @@
         <v>15692</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>685</v>
+        <v>712</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>686</v>
+        <v>713</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -8775,13 +8886,13 @@
         <v>30021</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>688</v>
+        <v>715</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>689</v>
+        <v>716</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8849,13 +8960,13 @@
         <v>4218</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>690</v>
+        <v>717</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>406</v>
+        <v>718</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>691</v>
+        <v>719</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -8870,7 +8981,7 @@
         <v>162</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>692</v>
+        <v>720</v>
       </c>
       <c r="M19" s="7">
         <v>4</v>
@@ -8879,13 +8990,13 @@
         <v>4218</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>693</v>
+        <v>721</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>694</v>
+        <v>722</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>695</v>
+        <v>723</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -8900,13 +9011,13 @@
         <v>21490</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>696</v>
+        <v>724</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>435</v>
+        <v>353</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>697</v>
+        <v>725</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -8915,10 +9026,10 @@
         <v>27286</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>698</v>
+        <v>726</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>687</v>
+        <v>714</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>311</v>
@@ -8930,13 +9041,13 @@
         <v>48775</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>700</v>
+        <v>728</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8951,13 +9062,13 @@
         <v>89678</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>702</v>
+        <v>730</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>703</v>
+        <v>731</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="H21" s="7">
         <v>51</v>
@@ -8966,13 +9077,13 @@
         <v>54356</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>705</v>
+        <v>733</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>706</v>
+        <v>734</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>707</v>
+        <v>735</v>
       </c>
       <c r="M21" s="7">
         <v>134</v>
@@ -8981,13 +9092,13 @@
         <v>144034</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>517</v>
+        <v>545</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>708</v>
+        <v>736</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>709</v>
+        <v>737</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9002,13 +9113,13 @@
         <v>23901</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>710</v>
+        <v>738</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>711</v>
+        <v>739</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>712</v>
+        <v>740</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -9017,13 +9128,13 @@
         <v>27115</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>713</v>
+        <v>741</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>714</v>
+        <v>742</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>715</v>
+        <v>743</v>
       </c>
       <c r="M22" s="7">
         <v>48</v>
@@ -9032,13 +9143,13 @@
         <v>51017</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>716</v>
+        <v>744</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>717</v>
+        <v>745</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>718</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9112,7 +9223,7 @@
         <v>162</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>719</v>
+        <v>747</v>
       </c>
       <c r="H24" s="7">
         <v>3</v>
@@ -9121,13 +9232,13 @@
         <v>2742</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>720</v>
+        <v>748</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>721</v>
+        <v>749</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>722</v>
+        <v>750</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -9136,13 +9247,13 @@
         <v>2742</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>723</v>
+        <v>751</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>725</v>
+        <v>753</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9157,13 +9268,13 @@
         <v>7364</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>726</v>
+        <v>754</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>727</v>
+        <v>755</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>728</v>
+        <v>756</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -9172,13 +9283,13 @@
         <v>4826</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>729</v>
+        <v>757</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>730</v>
+        <v>338</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>731</v>
+        <v>758</v>
       </c>
       <c r="M25" s="7">
         <v>12</v>
@@ -9187,13 +9298,13 @@
         <v>12190</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>733</v>
+        <v>760</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>734</v>
+        <v>761</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9208,13 +9319,13 @@
         <v>55725</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>735</v>
+        <v>762</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>736</v>
+        <v>763</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>737</v>
+        <v>764</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -9223,13 +9334,13 @@
         <v>41727</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>738</v>
+        <v>765</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>739</v>
+        <v>766</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>740</v>
+        <v>767</v>
       </c>
       <c r="M26" s="7">
         <v>97</v>
@@ -9238,13 +9349,13 @@
         <v>97452</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>741</v>
+        <v>768</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>742</v>
+        <v>769</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>743</v>
+        <v>770</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9259,13 +9370,13 @@
         <v>18867</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>744</v>
+        <v>771</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>745</v>
+        <v>772</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>746</v>
+        <v>773</v>
       </c>
       <c r="H27" s="7">
         <v>8</v>
@@ -9274,13 +9385,13 @@
         <v>7348</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>747</v>
+        <v>774</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>748</v>
+        <v>775</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>749</v>
+        <v>776</v>
       </c>
       <c r="M27" s="7">
         <v>27</v>
@@ -9292,10 +9403,10 @@
         <v>333</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>750</v>
+        <v>777</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>751</v>
+        <v>778</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -9363,13 +9474,13 @@
         <v>5034</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>752</v>
+        <v>779</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>629</v>
+        <v>656</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>753</v>
+        <v>780</v>
       </c>
       <c r="H29" s="7">
         <v>4</v>
@@ -9378,13 +9489,13 @@
         <v>3916</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>754</v>
+        <v>781</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>755</v>
+        <v>782</v>
       </c>
       <c r="M29" s="7">
         <v>9</v>
@@ -9393,13 +9504,13 @@
         <v>8951</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>756</v>
+        <v>783</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>757</v>
+        <v>784</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>758</v>
+        <v>785</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9417,10 +9528,10 @@
         <v>43</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>759</v>
+        <v>786</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>760</v>
+        <v>787</v>
       </c>
       <c r="H30" s="7">
         <v>15</v>
@@ -9429,13 +9540,13 @@
         <v>14806</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>559</v>
+        <v>588</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>260</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>761</v>
+        <v>788</v>
       </c>
       <c r="M30" s="7">
         <v>26</v>
@@ -9444,13 +9555,13 @@
         <v>25542</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>762</v>
+        <v>789</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>763</v>
+        <v>790</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>764</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9465,13 +9576,13 @@
         <v>58837</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>765</v>
+        <v>792</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>766</v>
+        <v>793</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>767</v>
+        <v>794</v>
       </c>
       <c r="H31" s="7">
         <v>39</v>
@@ -9480,13 +9591,13 @@
         <v>39588</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>768</v>
+        <v>795</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>769</v>
+        <v>796</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>770</v>
+        <v>797</v>
       </c>
       <c r="M31" s="7">
         <v>95</v>
@@ -9495,13 +9606,13 @@
         <v>98425</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>771</v>
+        <v>798</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>772</v>
+        <v>799</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>773</v>
+        <v>800</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -9516,13 +9627,13 @@
         <v>13622</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>774</v>
+        <v>801</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>775</v>
+        <v>802</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>541</v>
+        <v>570</v>
       </c>
       <c r="H32" s="7">
         <v>12</v>
@@ -9531,10 +9642,10 @@
         <v>13580</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>776</v>
+        <v>803</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>777</v>
+        <v>804</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>75</v>
@@ -9546,10 +9657,10 @@
         <v>27202</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>778</v>
+        <v>805</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>779</v>
+        <v>806</v>
       </c>
       <c r="Q32" s="7" t="s">
         <v>90</v>
@@ -9620,13 +9731,13 @@
         <v>4303</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>780</v>
+        <v>807</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>781</v>
+        <v>808</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>782</v>
+        <v>809</v>
       </c>
       <c r="H34" s="7">
         <v>3</v>
@@ -9635,13 +9746,13 @@
         <v>3427</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>783</v>
+        <v>810</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>784</v>
+        <v>811</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>785</v>
+        <v>812</v>
       </c>
       <c r="M34" s="7">
         <v>7</v>
@@ -9650,13 +9761,13 @@
         <v>7730</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>786</v>
+        <v>813</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>126</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>407</v>
+        <v>814</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -9671,13 +9782,13 @@
         <v>66065</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>787</v>
+        <v>815</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>788</v>
+        <v>816</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>789</v>
+        <v>817</v>
       </c>
       <c r="H35" s="7">
         <v>57</v>
@@ -9686,13 +9797,13 @@
         <v>58741</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>790</v>
+        <v>818</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>610</v>
+        <v>638</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>791</v>
+        <v>819</v>
       </c>
       <c r="M35" s="7">
         <v>114</v>
@@ -9701,13 +9812,13 @@
         <v>124806</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>792</v>
+        <v>820</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>793</v>
+        <v>821</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -9722,13 +9833,13 @@
         <v>94229</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>795</v>
+        <v>823</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>796</v>
+        <v>824</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>797</v>
+        <v>825</v>
       </c>
       <c r="H36" s="7">
         <v>86</v>
@@ -9737,13 +9848,13 @@
         <v>89224</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>798</v>
+        <v>826</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>799</v>
+        <v>827</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>800</v>
+        <v>828</v>
       </c>
       <c r="M36" s="7">
         <v>164</v>
@@ -9752,13 +9863,13 @@
         <v>183453</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>801</v>
+        <v>829</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>802</v>
+        <v>830</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>803</v>
+        <v>831</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -9773,13 +9884,13 @@
         <v>30966</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>804</v>
+        <v>832</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>805</v>
+        <v>833</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>806</v>
+        <v>834</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -9788,13 +9899,13 @@
         <v>19901</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>807</v>
+        <v>835</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>808</v>
+        <v>836</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>809</v>
+        <v>837</v>
       </c>
       <c r="M37" s="7">
         <v>47</v>
@@ -9803,13 +9914,13 @@
         <v>50868</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>810</v>
+        <v>838</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>811</v>
+        <v>839</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>812</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -9877,13 +9988,13 @@
         <v>7600</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>813</v>
+        <v>841</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>814</v>
+        <v>842</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
       <c r="H39" s="7">
         <v>4</v>
@@ -9892,13 +10003,13 @@
         <v>4074</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>816</v>
+        <v>844</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>817</v>
+        <v>845</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>818</v>
+        <v>846</v>
       </c>
       <c r="M39" s="7">
         <v>11</v>
@@ -9907,13 +10018,13 @@
         <v>11674</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>820</v>
+        <v>848</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>821</v>
+        <v>849</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
@@ -9928,13 +10039,13 @@
         <v>45763</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>822</v>
+        <v>850</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>823</v>
+        <v>851</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>824</v>
+        <v>852</v>
       </c>
       <c r="H40" s="7">
         <v>34</v>
@@ -9943,13 +10054,13 @@
         <v>36042</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>825</v>
+        <v>853</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>826</v>
+        <v>854</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>827</v>
+        <v>855</v>
       </c>
       <c r="M40" s="7">
         <v>77</v>
@@ -9958,13 +10069,13 @@
         <v>81805</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>828</v>
+        <v>856</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>829</v>
+        <v>857</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>830</v>
+        <v>858</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -9979,13 +10090,13 @@
         <v>151791</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>831</v>
+        <v>459</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>832</v>
+        <v>859</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>833</v>
+        <v>860</v>
       </c>
       <c r="H41" s="7">
         <v>118</v>
@@ -9994,13 +10105,13 @@
         <v>124446</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>618</v>
+        <v>645</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>834</v>
+        <v>861</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>835</v>
+        <v>862</v>
       </c>
       <c r="M41" s="7">
         <v>261</v>
@@ -10009,13 +10120,13 @@
         <v>276237</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>837</v>
+        <v>864</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>838</v>
+        <v>865</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -10030,13 +10141,13 @@
         <v>49062</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>839</v>
+        <v>866</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>840</v>
+        <v>867</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>701</v>
+        <v>729</v>
       </c>
       <c r="H42" s="7">
         <v>45</v>
@@ -10045,13 +10156,13 @@
         <v>46581</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>841</v>
+        <v>868</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>842</v>
+        <v>869</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>843</v>
+        <v>870</v>
       </c>
       <c r="M42" s="7">
         <v>91</v>
@@ -10060,13 +10171,13 @@
         <v>95643</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>844</v>
+        <v>871</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>845</v>
+        <v>872</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>846</v>
+        <v>873</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -10134,10 +10245,10 @@
         <v>32917</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>847</v>
+        <v>874</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>201</v>
@@ -10149,13 +10260,13 @@
         <v>22900</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>819</v>
+        <v>847</v>
       </c>
       <c r="K44" s="7" t="s">
         <v>165</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>849</v>
+        <v>876</v>
       </c>
       <c r="M44" s="7">
         <v>55</v>
@@ -10167,10 +10278,10 @@
         <v>122</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>850</v>
+        <v>877</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>851</v>
+        <v>878</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -10185,13 +10296,13 @@
         <v>229354</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>852</v>
+        <v>879</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>853</v>
+        <v>880</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>854</v>
+        <v>881</v>
       </c>
       <c r="H45" s="7">
         <v>178</v>
@@ -10200,13 +10311,13 @@
         <v>183082</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>855</v>
+        <v>882</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>856</v>
+        <v>883</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>857</v>
+        <v>884</v>
       </c>
       <c r="M45" s="7">
         <v>387</v>
@@ -10215,13 +10326,13 @@
         <v>412436</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>858</v>
+        <v>885</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>859</v>
+        <v>886</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>860</v>
+        <v>887</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -10236,13 +10347,13 @@
         <v>649628</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>861</v>
+        <v>888</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>862</v>
+        <v>889</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>863</v>
+        <v>890</v>
       </c>
       <c r="H46" s="7">
         <v>508</v>
@@ -10251,13 +10362,13 @@
         <v>522094</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>864</v>
+        <v>891</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>865</v>
+        <v>892</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>866</v>
+        <v>893</v>
       </c>
       <c r="M46" s="7">
         <v>1112</v>
@@ -10266,13 +10377,13 @@
         <v>1171722</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>867</v>
+        <v>894</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>868</v>
+        <v>895</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>869</v>
+        <v>896</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -10287,13 +10398,13 @@
         <v>251086</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>870</v>
+        <v>897</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>871</v>
+        <v>898</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>872</v>
+        <v>899</v>
       </c>
       <c r="H47" s="7">
         <v>176</v>
@@ -10302,13 +10413,13 @@
         <v>185625</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>873</v>
+        <v>900</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>874</v>
+        <v>901</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>875</v>
+        <v>902</v>
       </c>
       <c r="M47" s="7">
         <v>412</v>
@@ -10317,13 +10428,13 @@
         <v>436711</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>876</v>
+        <v>903</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>877</v>
+        <v>904</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>878</v>
+        <v>905</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
